--- a/数据整理/stocks/其他/MSFT-微软.xlsx
+++ b/数据整理/stocks/其他/MSFT-微软.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4261</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4261</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2621</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1794</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1794</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8479</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8479</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MSFT-微软.xlsx
+++ b/数据整理/stocks/其他/MSFT-微软.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4070,4 +4071,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MSFT-微软.xlsx
+++ b/数据整理/stocks/其他/MSFT-微软.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4079,7 +4080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4090,17 +4091,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4110,14 +4131,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.25</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4126,14 +4169,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.11</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4142,13 +4207,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.6284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5651</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5651</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5286</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4780</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>29</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>34.74</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MSFT-微软.xlsx
+++ b/数据整理/stocks/其他/MSFT-微软.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5314,7 +5315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5325,17 +5326,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5345,14 +5366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.75</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5361,14 +5404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.25</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5377,14 +5442,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.11</v>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.3401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5393,13 +5480,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.3401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9813</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9813</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3659</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2820</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2740</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2740</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1514</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.34999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>34.74</v>
       </c>
     </row>
